--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2128.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2128.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>5.145464549617327</v>
+        <v>0.950543999671936</v>
       </c>
       <c r="B1">
-        <v>2.235782388651716</v>
+        <v>3.233506202697754</v>
       </c>
       <c r="C1">
-        <v>1.236276628154762</v>
+        <v>2.802427053451538</v>
       </c>
       <c r="D1">
-        <v>1.000542089113338</v>
+        <v>1.557803273200989</v>
       </c>
       <c r="E1">
-        <v>0.9122100333905765</v>
+        <v>1.186467885971069</v>
       </c>
     </row>
   </sheetData>
